--- a/progetto/results/randomMergeHeapPython/pythonSort.xlsx
+++ b/progetto/results/randomMergeHeapPython/pythonSort.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.0002155303955078125</v>
+        <v>0.0001583099365234375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.0003402233123779297</v>
+        <v>0.0002460479736328125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.0004694461822509766</v>
+        <v>0.0003430843353271484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.0004329681396484375</v>
+        <v>0.0004401206970214844</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.0005755424499511719</v>
+        <v>0.0005381107330322267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.0006403923034667969</v>
+        <v>0.0006468296051025392</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.0008399486541748048</v>
+        <v>0.0007479190826416017</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.0008549690246582031</v>
+        <v>0.0008475780487060548</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.0009686946868896484</v>
+        <v>0.0009572505950927734</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.001059532165527344</v>
+        <v>0.001072406768798828</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.001183032989501953</v>
+        <v>0.0012054443359375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.001290082931518555</v>
+        <v>0.00130319595336914</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.001430273056030273</v>
+        <v>0.001403331756591797</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.001522064208984375</v>
+        <v>0.001566886901855469</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.001645565032958985</v>
+        <v>0.001652240753173828</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.001751899719238281</v>
+        <v>0.001752138137817383</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.001852035522460937</v>
+        <v>0.001873254776000977</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.001984119415283203</v>
+        <v>0.001978397369384766</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.002091884613037109</v>
+        <v>0.002101898193359375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.002333402633666992</v>
+        <v>0.002333164215087891</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.002583980560302734</v>
+        <v>0.002597808837890625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.002848386764526367</v>
+        <v>0.002821683883666992</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.003114700317382812</v>
+        <v>0.003093481063842773</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.003425836563110352</v>
+        <v>0.003338336944580078</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.003948450088500977</v>
+        <v>0.003600835800170898</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.003868341445922852</v>
+        <v>0.005569934844970703</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.004221439361572266</v>
+        <v>0.004088640213012695</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.007439851760864258</v>
+        <v>0.005164146423339844</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.005865097045898438</v>
+        <v>0.005836248397827149</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.006477594375610352</v>
+        <v>0.005765438079833984</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.00511622428894043</v>
+        <v>0.006028890609741211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.005399465560913086</v>
+        <v>0.006179332733154297</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.005763053894042969</v>
+        <v>0.005868911743164063</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.006109476089477539</v>
+        <v>0.005939483642578125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.006592750549316406</v>
+        <v>0.006196975708007813</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.007279396057128906</v>
+        <v>0.006526708602905274</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.01477646827697754</v>
+        <v>0.006765842437744141</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.00737452507019043</v>
+        <v>0.007043838500976562</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.007973432540893555</v>
+        <v>0.007293939590454102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.007944345474243164</v>
+        <v>0.007607698440551758</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.008005380630493164</v>
+        <v>0.007860660552978516</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.01294159889221191</v>
+        <v>0.008764743804931641</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.009415626525878906</v>
+        <v>0.008340597152709961</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.00903010368347168</v>
+        <v>0.008926868438720703</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.008879661560058594</v>
+        <v>0.008936166763305664</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.01112198829650879</v>
+        <v>0.009179353713989258</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.009903669357299805</v>
+        <v>0.009532690048217772</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.0168914794921875</v>
+        <v>0.009745121002197266</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.0110478401184082</v>
+        <v>0.01006340980529785</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.01092720031738281</v>
+        <v>0.01031827926635742</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.01058530807495117</v>
+        <v>0.01059913635253906</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.012969970703125</v>
+        <v>0.01092004776000977</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.01757311820983887</v>
+        <v>0.01120591163635254</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.01945304870605469</v>
+        <v>0.01151728630065918</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.01353549957275391</v>
+        <v>0.01193523406982422</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.01382756233215332</v>
+        <v>0.01212096214294434</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.0193791389465332</v>
+        <v>0.01250290870666504</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.0196373462677002</v>
+        <v>0.01275753974914551</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.01320886611938477</v>
+        <v>0.0131075382232666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.01455116271972656</v>
+        <v>0.01456785202026367</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.01908683776855469</v>
+        <v>0.01639223098754883</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.02036881446838379</v>
+        <v>0.01766061782836914</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.02608895301818848</v>
+        <v>0.01932716369628906</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.02292442321777344</v>
+        <v>0.0210561752319336</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>0.02411198616027832</v>
+        <v>0.02257752418518066</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>0.02570772171020508</v>
+        <v>0.02426528930664062</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>0.04015302658081055</v>
+        <v>0.02609348297119141</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>0.02872300148010254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>0.02938961982727051</v>
+        <v>0.02790665626525879</v>
       </c>
     </row>
   </sheetData>
